--- a/modelos/OBAFAR4421415/OBAFAR4421415_Sell Out_metricas.xlsx
+++ b/modelos/OBAFAR4421415/OBAFAR4421415_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45014</v>
       </c>
       <c r="B2" t="n">
-        <v>214.3224437928872</v>
+        <v>214.3224437928479</v>
       </c>
       <c r="C2" t="n">
-        <v>162.5185467911264</v>
+        <v>168.2739026613468</v>
       </c>
       <c r="D2" t="n">
-        <v>261.2664373108382</v>
+        <v>264.0695756410131</v>
       </c>
       <c r="E2" t="n">
         <v>109</v>
@@ -496,13 +496,13 @@
         <v>45017</v>
       </c>
       <c r="B3" t="n">
-        <v>149.3690730472385</v>
+        <v>149.3690730471985</v>
       </c>
       <c r="C3" t="n">
-        <v>100.6147322639707</v>
+        <v>100.2252955399321</v>
       </c>
       <c r="D3" t="n">
-        <v>198.7286459588258</v>
+        <v>196.3522876326696</v>
       </c>
       <c r="E3" t="n">
         <v>70</v>
@@ -516,13 +516,13 @@
         <v>45022</v>
       </c>
       <c r="B4" t="n">
-        <v>161.4643685026562</v>
+        <v>161.4643681191459</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5127581296606</v>
+        <v>108.0347915663768</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4680820097441</v>
+        <v>217.3713993033341</v>
       </c>
       <c r="E4" t="n">
         <v>248</v>
@@ -536,13 +536,13 @@
         <v>45027</v>
       </c>
       <c r="B5" t="n">
-        <v>200.8579564911516</v>
+        <v>200.8579564708967</v>
       </c>
       <c r="C5" t="n">
-        <v>145.2284174802215</v>
+        <v>152.734986713862</v>
       </c>
       <c r="D5" t="n">
-        <v>261.8170007186515</v>
+        <v>256.6219455442834</v>
       </c>
       <c r="E5" t="n">
         <v>169</v>
@@ -556,13 +556,13 @@
         <v>45033</v>
       </c>
       <c r="B6" t="n">
-        <v>166.8939668464109</v>
+        <v>166.8939668256896</v>
       </c>
       <c r="C6" t="n">
-        <v>111.9854690101679</v>
+        <v>107.9504338676262</v>
       </c>
       <c r="D6" t="n">
-        <v>224.0167836706905</v>
+        <v>222.3039162923216</v>
       </c>
       <c r="E6" t="n">
         <v>170</v>
@@ -576,13 +576,13 @@
         <v>45040</v>
       </c>
       <c r="B7" t="n">
-        <v>164.639637951265</v>
+        <v>164.6396379855794</v>
       </c>
       <c r="C7" t="n">
-        <v>112.7746912440038</v>
+        <v>109.7124374333603</v>
       </c>
       <c r="D7" t="n">
-        <v>223.8456871770066</v>
+        <v>221.2764930704229</v>
       </c>
       <c r="E7" t="n">
         <v>139</v>
@@ -657,22 +657,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1014.929391792107</v>
+        <v>1014.929390501551</v>
       </c>
       <c r="C2" t="n">
-        <v>31.85795649115158</v>
+        <v>31.85795647089674</v>
       </c>
       <c r="D2" t="n">
-        <v>31.85795649115158</v>
+        <v>31.85795647089674</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1885086182908378</v>
+        <v>0.1885086181709866</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1885086182908378</v>
+        <v>0.1885086181709866</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1722713054135081</v>
+        <v>0.1722713053134146</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -683,22 +683,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11092.81716650588</v>
+        <v>11092.8171664976</v>
       </c>
       <c r="C3" t="n">
-        <v>105.3224437928872</v>
+        <v>105.3224437928479</v>
       </c>
       <c r="D3" t="n">
-        <v>105.3224437928872</v>
+        <v>105.3224437928479</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9662609522283228</v>
+        <v>0.9662609522279622</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9662609522283228</v>
+        <v>0.9662609522279622</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6515009756659782</v>
+        <v>0.6515009756658142</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7488.415518644088</v>
+        <v>7488.415585018684</v>
       </c>
       <c r="C4" t="n">
-        <v>86.53563149734384</v>
+        <v>86.53563188085405</v>
       </c>
       <c r="D4" t="n">
-        <v>86.53563149734384</v>
+        <v>86.53563188085405</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3489339979731607</v>
+        <v>0.3489339995195728</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3489339979731607</v>
+        <v>0.3489339995195728</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4226772249501973</v>
+        <v>0.4226772272193116</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -735,22 +735,22 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>6299.449756377879</v>
+        <v>6299.449756371527</v>
       </c>
       <c r="C5" t="n">
-        <v>79.36907304723849</v>
+        <v>79.36907304719847</v>
       </c>
       <c r="D5" t="n">
-        <v>79.36907304723849</v>
+        <v>79.36907304719847</v>
       </c>
       <c r="E5" t="n">
-        <v>1.133843900674836</v>
+        <v>1.133843900674264</v>
       </c>
       <c r="F5" t="n">
-        <v>1.133843900674836</v>
+        <v>1.133843900674264</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7236122389061407</v>
+        <v>0.7236122389059079</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -761,22 +761,22 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>333.5192381115723</v>
+        <v>333.5192390557402</v>
       </c>
       <c r="C6" t="n">
-        <v>18.26250908587241</v>
+        <v>18.2625091117223</v>
       </c>
       <c r="D6" t="n">
-        <v>14.37283555242706</v>
+        <v>14.37283557994486</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1013643051219623</v>
+        <v>0.1013643053063401</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1013643051219623</v>
+        <v>0.1013643053063401</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09366062724723091</v>
+        <v>0.09366062741277215</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>

--- a/modelos/OBAFAR4421415/OBAFAR4421415_Sell Out_metricas.xlsx
+++ b/modelos/OBAFAR4421415/OBAFAR4421415_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45014</v>
       </c>
       <c r="B2" t="n">
-        <v>214.3224437928479</v>
+        <v>214.322443792875</v>
       </c>
       <c r="C2" t="n">
-        <v>168.2739026613468</v>
+        <v>167.1513887013211</v>
       </c>
       <c r="D2" t="n">
-        <v>264.0695756410131</v>
+        <v>265.9943658288761</v>
       </c>
       <c r="E2" t="n">
         <v>109</v>
@@ -496,13 +496,13 @@
         <v>45017</v>
       </c>
       <c r="B3" t="n">
-        <v>149.3690730471985</v>
+        <v>149.3690730472261</v>
       </c>
       <c r="C3" t="n">
-        <v>100.2252955399321</v>
+        <v>98.23507961574009</v>
       </c>
       <c r="D3" t="n">
-        <v>196.3522876326696</v>
+        <v>202.6835590651122</v>
       </c>
       <c r="E3" t="n">
         <v>70</v>
@@ -516,13 +516,13 @@
         <v>45022</v>
       </c>
       <c r="B4" t="n">
-        <v>161.4643681191459</v>
+        <v>161.4643684852054</v>
       </c>
       <c r="C4" t="n">
-        <v>108.0347915663768</v>
+        <v>107.8267720644785</v>
       </c>
       <c r="D4" t="n">
-        <v>217.3713993033341</v>
+        <v>215.622335933758</v>
       </c>
       <c r="E4" t="n">
         <v>248</v>
@@ -536,13 +536,13 @@
         <v>45027</v>
       </c>
       <c r="B5" t="n">
-        <v>200.8579564708967</v>
+        <v>200.8579565064887</v>
       </c>
       <c r="C5" t="n">
-        <v>152.734986713862</v>
+        <v>146.6354844467122</v>
       </c>
       <c r="D5" t="n">
-        <v>256.6219455442834</v>
+        <v>256.3187427531122</v>
       </c>
       <c r="E5" t="n">
         <v>169</v>
@@ -556,13 +556,13 @@
         <v>45033</v>
       </c>
       <c r="B6" t="n">
-        <v>166.8939668256896</v>
+        <v>166.8939668626996</v>
       </c>
       <c r="C6" t="n">
-        <v>107.9504338676262</v>
+        <v>111.8484711262507</v>
       </c>
       <c r="D6" t="n">
-        <v>222.3039162923216</v>
+        <v>218.9530054331406</v>
       </c>
       <c r="E6" t="n">
         <v>170</v>
@@ -576,13 +576,13 @@
         <v>45040</v>
       </c>
       <c r="B7" t="n">
-        <v>164.6396379855794</v>
+        <v>164.6396396839377</v>
       </c>
       <c r="C7" t="n">
-        <v>109.7124374333603</v>
+        <v>110.8047482470731</v>
       </c>
       <c r="D7" t="n">
-        <v>221.2764930704229</v>
+        <v>218.0743101114508</v>
       </c>
       <c r="E7" t="n">
         <v>139</v>
@@ -657,22 +657,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1014.929390501551</v>
+        <v>1014.929392769328</v>
       </c>
       <c r="C2" t="n">
-        <v>31.85795647089674</v>
+        <v>31.85795650648873</v>
       </c>
       <c r="D2" t="n">
-        <v>31.85795647089674</v>
+        <v>31.85795650648873</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1885086181709866</v>
+        <v>0.1885086183815901</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1885086181709866</v>
+        <v>0.1885086183815901</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1722713053134146</v>
+        <v>0.1722713054892998</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -683,22 +683,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11092.8171664976</v>
+        <v>11092.81716650331</v>
       </c>
       <c r="C3" t="n">
-        <v>105.3224437928479</v>
+        <v>105.322443792875</v>
       </c>
       <c r="D3" t="n">
-        <v>105.3224437928479</v>
+        <v>105.322443792875</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9662609522279622</v>
+        <v>0.966260952228211</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9662609522279622</v>
+        <v>0.966260952228211</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6515009756658142</v>
+        <v>0.6515009756659272</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7488.415585018684</v>
+        <v>7488.415521664318</v>
       </c>
       <c r="C4" t="n">
-        <v>86.53563188085405</v>
+        <v>86.53563151479463</v>
       </c>
       <c r="D4" t="n">
-        <v>86.53563188085405</v>
+        <v>86.53563151479463</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3489339995195728</v>
+        <v>0.3489339980435268</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3489339995195728</v>
+        <v>0.3489339980435268</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4226772272193116</v>
+        <v>0.4226772250534484</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -735,22 +735,22 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>6299.449756371527</v>
+        <v>6299.449756375911</v>
       </c>
       <c r="C5" t="n">
-        <v>79.36907304719847</v>
+        <v>79.3690730472261</v>
       </c>
       <c r="D5" t="n">
-        <v>79.36907304719847</v>
+        <v>79.3690730472261</v>
       </c>
       <c r="E5" t="n">
-        <v>1.133843900674264</v>
+        <v>1.133843900674659</v>
       </c>
       <c r="F5" t="n">
-        <v>1.133843900674264</v>
+        <v>1.133843900674659</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7236122389059079</v>
+        <v>0.7236122389060686</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -761,22 +761,22 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>333.5192390557402</v>
+        <v>333.5192824860813</v>
       </c>
       <c r="C6" t="n">
-        <v>18.2625091117223</v>
+        <v>18.26251030077961</v>
       </c>
       <c r="D6" t="n">
-        <v>14.37283557994486</v>
+        <v>14.37283641061906</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1013643053063401</v>
+        <v>0.10136431130669</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1013643053063401</v>
+        <v>0.10136431130669</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09366062741277215</v>
+        <v>0.09366063242293145</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>

--- a/modelos/OBAFAR4421415/OBAFAR4421415_Sell Out_metricas.xlsx
+++ b/modelos/OBAFAR4421415/OBAFAR4421415_Sell Out_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>214.322443792875</v>
       </c>
       <c r="C2" t="n">
-        <v>167.1513887013211</v>
+        <v>160.3688674261749</v>
       </c>
       <c r="D2" t="n">
-        <v>265.9943658288761</v>
+        <v>262.822382241037</v>
       </c>
       <c r="E2" t="n">
         <v>109</v>
@@ -499,10 +499,10 @@
         <v>149.3690730472261</v>
       </c>
       <c r="C3" t="n">
-        <v>98.23507961574009</v>
+        <v>96.25239287023183</v>
       </c>
       <c r="D3" t="n">
-        <v>202.6835590651122</v>
+        <v>201.0194211266424</v>
       </c>
       <c r="E3" t="n">
         <v>70</v>
@@ -519,10 +519,10 @@
         <v>161.4643684852054</v>
       </c>
       <c r="C4" t="n">
-        <v>107.8267720644785</v>
+        <v>103.8455723997409</v>
       </c>
       <c r="D4" t="n">
-        <v>215.622335933758</v>
+        <v>212.9724076238258</v>
       </c>
       <c r="E4" t="n">
         <v>248</v>
@@ -539,10 +539,10 @@
         <v>200.8579565064887</v>
       </c>
       <c r="C5" t="n">
-        <v>146.6354844467122</v>
+        <v>146.8521423281548</v>
       </c>
       <c r="D5" t="n">
-        <v>256.3187427531122</v>
+        <v>254.4551461314529</v>
       </c>
       <c r="E5" t="n">
         <v>169</v>
@@ -559,10 +559,10 @@
         <v>166.8939668626996</v>
       </c>
       <c r="C6" t="n">
-        <v>111.8484711262507</v>
+        <v>111.5439690743223</v>
       </c>
       <c r="D6" t="n">
-        <v>218.9530054331406</v>
+        <v>221.3066818532161</v>
       </c>
       <c r="E6" t="n">
         <v>170</v>
@@ -579,10 +579,10 @@
         <v>164.6396396839377</v>
       </c>
       <c r="C7" t="n">
-        <v>110.8047482470731</v>
+        <v>112.1777259509881</v>
       </c>
       <c r="D7" t="n">
-        <v>218.0743101114508</v>
+        <v>217.026337908517</v>
       </c>
       <c r="E7" t="n">
         <v>139</v>
